--- a/接口文档/后台/后台接口.xlsx
+++ b/接口文档/后台/后台接口.xlsx
@@ -6,21 +6,83 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="核对清单 - 核对清单" sheetId="1" r:id="rId4"/>
+    <sheet name="后台接口文档" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
-  <si>
-    <t>核对清单</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>任务</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>根路径</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Avenir Next Demi Bold"/>
+      </rPr>
+      <t>http://www.xiaomo.info</t>
+    </r>
+  </si>
+  <si>
+    <t>管理员|登陆</t>
+  </si>
+  <si>
+    <t>/api/admin/adminUser/login</t>
+  </si>
+  <si>
+    <t>/{userName}/{password}</t>
+  </si>
+  <si>
+    <t>管理员|添加用户</t>
+  </si>
+  <si>
+    <t>/api/admin/adminUser/add</t>
+  </si>
+  <si>
+    <t>/{userName}/{password}/｛authLevel｝</t>
+  </si>
+  <si>
+    <t>0游客 1超级管理员(能操作管理员表)2普通管理员（不能操作管理表）</t>
+  </si>
+  <si>
+    <t>管理员|查询</t>
+  </si>
+  <si>
+    <t>/api/admin/adminUser/findById</t>
+  </si>
+  <si>
+    <t>/{id}</t>
+  </si>
+  <si>
+    <t>管理员|修改</t>
+  </si>
+  <si>
+    <t>/api/admin/adminUser/update</t>
+  </si>
+  <si>
+    <t>管理员|分页查询</t>
+  </si>
+  <si>
+    <t>/api/admin/adminUser/findAll</t>
+  </si>
+  <si>
+    <t>/{start}/{pageSize}</t>
   </si>
 </sst>
 </file>
@@ -38,22 +100,23 @@
       <name val="Avenir Next"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="9"/>
-      <name val="Avenir Next Demi Bold"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="10"/>
-      <name val="Avenir Next Medium"/>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Avenir Next"/>
     </font>
     <font>
+      <u val="single"/>
       <sz val="10"/>
-      <color indexed="10"/>
+      <color indexed="13"/>
       <name val="Avenir Next Demi Bold"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -62,12 +125,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="14"/>
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -77,7 +152,22 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -85,141 +175,28 @@
       <top style="thin">
         <color indexed="11"/>
       </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="dotted">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="13"/>
-      </left>
-      <right style="dotted">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="13"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="dotted">
-        <color indexed="13"/>
-      </right>
-      <top style="dotted">
-        <color indexed="13"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="13"/>
-      </left>
-      <right style="dotted">
-        <color indexed="13"/>
-      </right>
-      <top style="dotted">
-        <color indexed="13"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
-      <top style="dotted">
-        <color indexed="13"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="dotted">
-        <color indexed="13"/>
-      </right>
-      <top style="dotted">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="13"/>
-      </left>
-      <right style="dotted">
-        <color indexed="13"/>
-      </right>
-      <top style="dotted">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="dotted">
-        <color indexed="13"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="11"/>
       </bottom>
@@ -231,54 +208,42 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -297,12 +262,11 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffcde8f3"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff313131"/>
-      <rgbColor rgb="ffe3e3e3"/>
-      <rgbColor rgb="ff929292"/>
-      <rgbColor rgb="ffadadad"/>
-      <rgbColor rgb="fff4f9f7"/>
+      <rgbColor rgb="ffe7f3f9"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -319,10 +283,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="6D6D6D"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EBEBEB"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="47C0E1"/>
@@ -351,14 +315,14 @@
     </a:clrScheme>
     <a:fontScheme name="08_Checklist">
       <a:majorFont>
-        <a:latin typeface="Avenir Next Demi Bold"/>
-        <a:ea typeface="Avenir Next Demi Bold"/>
-        <a:cs typeface="Avenir Next Demi Bold"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Avenir Next Demi Bold"/>
-        <a:ea typeface="Avenir Next Demi Bold"/>
-        <a:cs typeface="Avenir Next Demi Bold"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="08_Checklist">
@@ -452,7 +416,13 @@
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -511,15 +481,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:hueOff val="409046"/>
-            <a:satOff val="3911"/>
-            <a:lumOff val="-23973"/>
-          </a:schemeClr>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst>
           <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
@@ -534,34 +503,34 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Avenir Next Demi Bold"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -809,18 +778,20 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:hueOff val="409046"/>
-              <a:satOff val="3911"/>
-              <a:lumOff val="-23973"/>
-            </a:schemeClr>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1109,34 +1080,34 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="120000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="232323"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Avenir Next"/>
-            <a:ea typeface="Avenir Next"/>
-            <a:cs typeface="Avenir Next"/>
-            <a:sym typeface="Avenir Next"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1390,238 +1361,285 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.17169" defaultRowHeight="21.65" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.16667" defaultRowHeight="13.65" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.17969" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.4844" style="1" customWidth="1"/>
-    <col min="3" max="3" width="59.2656" style="1" customWidth="1"/>
-    <col min="4" max="256" width="8.17969" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1719" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6719" style="1" customWidth="1"/>
+    <col min="4" max="4" width="52.1719" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.17188" style="1" customWidth="1"/>
+    <col min="6" max="256" width="8.17188" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" ht="22.6" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="3">
-        <v>2</v>
-      </c>
+      <c r="A2" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="22.85" customHeight="1">
-      <c r="A3" t="b" s="4">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" ht="22.75" customHeight="1">
-      <c r="A4" t="b" s="7">
-        <v>0</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
+      <c r="A3" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" ht="42.8" customHeight="1">
+      <c r="A4" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="22.75" customHeight="1">
-      <c r="A5" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-    </row>
-    <row r="6" ht="22.75" customHeight="1">
-      <c r="A6" t="b" s="7">
-        <v>0</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
+      <c r="A5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" ht="41" customHeight="1">
+      <c r="A6" t="s" s="4">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="22.75" customHeight="1">
-      <c r="A7" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
+      <c r="A7" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s" s="7">
+        <v>20</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="22.75" customHeight="1">
-      <c r="A8" t="b" s="7">
-        <v>0</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="22.75" customHeight="1">
-      <c r="A9" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="22.75" customHeight="1">
-      <c r="A10" t="b" s="7">
-        <v>0</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" ht="22.75" customHeight="1">
-      <c r="A11" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" ht="22.75" customHeight="1">
-      <c r="A12" t="b" s="7">
-        <v>0</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" ht="22.75" customHeight="1">
-      <c r="A13" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" ht="22.75" customHeight="1">
-      <c r="A14" t="b" s="7">
-        <v>0</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" ht="22.75" customHeight="1">
-      <c r="A15" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" ht="22.75" customHeight="1">
-      <c r="A16" t="b" s="7">
-        <v>0</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" ht="22.75" customHeight="1">
-      <c r="A17" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" ht="22.75" customHeight="1">
-      <c r="A18" t="b" s="7">
-        <v>0</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" ht="22.75" customHeight="1">
-      <c r="A19" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" ht="22.75" customHeight="1">
-      <c r="A20" t="b" s="7">
-        <v>0</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" ht="22.75" customHeight="1">
-      <c r="A21" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" ht="22.75" customHeight="1">
-      <c r="A22" t="b" s="7">
-        <v>0</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" ht="22.75" customHeight="1">
-      <c r="A23" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" ht="22.75" customHeight="1">
-      <c r="A24" t="b" s="7">
-        <v>0</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" ht="22.75" customHeight="1">
-      <c r="A25" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" ht="22.75" customHeight="1">
-      <c r="A26" t="b" s="7">
-        <v>0</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" ht="22.75" customHeight="1">
-      <c r="A27" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" ht="22.75" customHeight="1">
-      <c r="A28" t="b" s="7">
-        <v>0</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" ht="22.75" customHeight="1">
-      <c r="A29" t="b" s="10">
-        <v>0</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" ht="22.5" customHeight="1">
-      <c r="A30" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" location="" tooltip="" display=""/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Avenir Next Demi Bold,Regular"&amp;9&amp;KAAAAAA&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/接口文档/后台/后台接口.xlsx
+++ b/接口文档/后台/后台接口.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>模块</t>
   </si>
@@ -83,6 +83,18 @@
   </si>
   <si>
     <t>/{start}/{pageSize}</t>
+  </si>
+  <si>
+    <t>管理员|删除</t>
+  </si>
+  <si>
+    <t>/api/admin/adminUser/delete</t>
+  </si>
+  <si>
+    <t>管理员|禁用</t>
+  </si>
+  <si>
+    <t>/api/admin/adminUser/forbid</t>
   </si>
 </sst>
 </file>
@@ -1469,16 +1481,28 @@
       <c r="E7" s="6"/>
     </row>
     <row r="8" ht="22.75" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="8"/>
+      <c r="A8" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s" s="4">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s" s="8">
+        <v>15</v>
+      </c>
       <c r="D8" s="8"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" ht="22.75" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="7"/>
+      <c r="A9" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s" s="7">
+        <v>15</v>
+      </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6"/>
     </row>

--- a/接口文档/后台/后台接口.xlsx
+++ b/接口文档/后台/后台接口.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
-    <sheet name="后台接口文档" sheetId="1" r:id="rId4"/>
+    <sheet name="后台接口文档" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>模块</t>
   </si>
@@ -31,10 +33,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="13"/>
         <rFont val="Avenir Next Demi Bold"/>
+        <charset val="134"/>
       </rPr>
       <t>http://www.xiaomo.info</t>
     </r>
@@ -46,7 +49,27 @@
     <t>/api/admin/adminUser/login</t>
   </si>
   <si>
-    <t>/{userName}/{password}</t>
+    <r>
+      <t>userName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{password</t>
+    </r>
   </si>
   <si>
     <t>管理员|添加用户</t>
@@ -74,6 +97,47 @@
   </si>
   <si>
     <t>/api/admin/adminUser/update</t>
+  </si>
+  <si>
+    <r>
+      <t>userName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
+      <t>password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
+      <t>authLevel</t>
+    </r>
   </si>
   <si>
     <t>管理员|分页查询</t>
@@ -101,34 +165,192 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="yy-m-d"/>
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Avenir Next"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Avenir Next"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Avenir Next"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <u val="single"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10"/>
       <color indexed="13"/>
       <name val="Avenir Next Demi Bold"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,23 +360,209 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -214,78 +622,423 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffcde8f3"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffe7f3f9"/>
-      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00CDE8F3"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="00E7F3F9"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="08_Checklist">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="08_Checklist">
   <a:themeElements>
     <a:clrScheme name="08_Checklist">
       <a:dk1>
@@ -411,7 +1164,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="12700" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -420,7 +1173,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="12700" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -429,7 +1182,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="12700" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -503,13 +1256,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="12700" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -529,8 +1281,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -559,8 +1310,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -585,8 +1335,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -611,8 +1360,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -637,8 +1385,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -663,8 +1410,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -689,8 +1435,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -715,8 +1460,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -741,8 +1485,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -767,8 +1510,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -781,9 +1523,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -798,13 +1546,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="12700" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -824,8 +1571,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -850,8 +1596,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -876,8 +1621,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -902,8 +1646,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -928,8 +1671,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -954,8 +1696,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -980,8 +1721,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1006,8 +1746,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1032,8 +1771,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1058,8 +1796,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1072,9 +1809,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1085,8 +1828,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -1106,8 +1847,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1136,8 +1876,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1162,8 +1901,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1188,8 +1926,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1214,8 +1951,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1240,8 +1976,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1266,8 +2001,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1292,8 +2026,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1318,8 +2051,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1344,8 +2076,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1358,310 +2089,318 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.16667" defaultRowHeight="13.65" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.17142857142857" defaultRowHeight="13.65" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.1719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.6719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="52.1719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.17188" style="1" customWidth="1"/>
-    <col min="6" max="256" width="8.17188" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5047619047619" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1714285714286" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6761904761905" style="1" customWidth="1"/>
+    <col min="4" max="4" width="52.1714285714286" style="1" customWidth="1"/>
+    <col min="5" max="256" width="8.17142857142857" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="31" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="22.6" customHeight="1">
-      <c r="A2" t="s" s="4">
+    <row r="2" ht="22.6" customHeight="1" spans="1:5">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" ht="22.85" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" ht="22.85" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" ht="42.8" customHeight="1">
-      <c r="A4" t="s" s="4">
+    <row r="4" ht="42.8" customHeight="1" spans="1:5">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s" s="4">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s" s="8">
+      <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s" s="8">
+      <c r="D4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" ht="22.75" customHeight="1">
-      <c r="A5" t="s" s="2">
+    <row r="5" ht="22.75" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s" s="7">
+      <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" ht="41" customHeight="1">
-      <c r="A6" t="s" s="4">
+    <row r="6" ht="41" customHeight="1" spans="1:5">
+      <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s" s="4">
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="D6" s="8"/>
+      <c r="C6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="9"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" ht="22.75" customHeight="1">
-      <c r="A7" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s" s="2">
+    <row r="7" ht="22.75" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s" s="7">
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="8"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" ht="22.75" customHeight="1">
-      <c r="A8" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s" s="4">
+    <row r="8" ht="22.75" customHeight="1" spans="1:5">
+      <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s" s="8">
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" ht="22.75" customHeight="1">
-      <c r="A9" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s" s="2">
+    <row r="9" ht="22.75" customHeight="1" spans="1:5">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s" s="7">
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" ht="22.75" customHeight="1">
-      <c r="A10" s="9"/>
+    <row r="10" ht="22.75" customHeight="1" spans="1:5">
+      <c r="A10" s="11"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" ht="22.75" customHeight="1">
-      <c r="A11" s="10"/>
+    <row r="11" ht="22.75" customHeight="1" spans="1:5">
+      <c r="A11" s="12"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" ht="22.75" customHeight="1">
-      <c r="A12" s="9"/>
+    <row r="12" ht="22.75" customHeight="1" spans="1:5">
+      <c r="A12" s="11"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" ht="22.75" customHeight="1">
-      <c r="A13" s="10"/>
+    <row r="13" ht="22.75" customHeight="1" spans="1:5">
+      <c r="A13" s="12"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" ht="22.75" customHeight="1">
-      <c r="A14" s="9"/>
+    <row r="14" ht="22.75" customHeight="1" spans="1:5">
+      <c r="A14" s="11"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" ht="22.75" customHeight="1">
-      <c r="A15" s="10"/>
+    <row r="15" ht="22.75" customHeight="1" spans="1:5">
+      <c r="A15" s="12"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" ht="22.75" customHeight="1">
-      <c r="A16" s="9"/>
+    <row r="16" ht="22.75" customHeight="1" spans="1:5">
+      <c r="A16" s="11"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" ht="22.75" customHeight="1">
-      <c r="A17" s="10"/>
+    <row r="17" ht="22.75" customHeight="1" spans="1:5">
+      <c r="A17" s="12"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" ht="22.75" customHeight="1">
-      <c r="A18" s="9"/>
+    <row r="18" ht="22.75" customHeight="1" spans="1:5">
+      <c r="A18" s="11"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" ht="22.75" customHeight="1">
-      <c r="A19" s="10"/>
+    <row r="19" ht="22.75" customHeight="1" spans="1:5">
+      <c r="A19" s="12"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" ht="22.75" customHeight="1">
-      <c r="A20" s="9"/>
+    <row r="20" ht="22.75" customHeight="1" spans="1:5">
+      <c r="A20" s="11"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" ht="22.75" customHeight="1">
-      <c r="A21" s="10"/>
+    <row r="21" ht="22.75" customHeight="1" spans="1:5">
+      <c r="A21" s="12"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" ht="22.75" customHeight="1">
-      <c r="A22" s="9"/>
+    <row r="22" ht="22.75" customHeight="1" spans="1:5">
+      <c r="A22" s="11"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" ht="22.75" customHeight="1">
-      <c r="A23" s="10"/>
+    <row r="23" ht="22.75" customHeight="1" spans="1:5">
+      <c r="A23" s="12"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" ht="22.75" customHeight="1">
-      <c r="A24" s="9"/>
+    <row r="24" ht="22.75" customHeight="1" spans="1:5">
+      <c r="A24" s="11"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" ht="22.75" customHeight="1">
-      <c r="A25" s="10"/>
+    <row r="25" ht="22.75" customHeight="1" spans="1:5">
+      <c r="A25" s="12"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" ht="22.75" customHeight="1">
-      <c r="A26" s="9"/>
+    <row r="26" ht="22.75" customHeight="1" spans="1:5">
+      <c r="A26" s="11"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" ht="22.75" customHeight="1">
-      <c r="A27" s="10"/>
+    <row r="27" ht="22.75" customHeight="1" spans="1:5">
+      <c r="A27" s="12"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" ht="22.75" customHeight="1">
-      <c r="A28" s="9"/>
+    <row r="28" ht="22.75" customHeight="1" spans="1:5">
+      <c r="A28" s="11"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" ht="22.75" customHeight="1">
-      <c r="A29" s="10"/>
+    <row r="29" ht="22.75" customHeight="1" spans="1:5">
+      <c r="A29" s="12"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" ht="22.5" customHeight="1">
-      <c r="A30" s="9"/>
+    <row r="30" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A30" s="11"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="11"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.xiaomo.info"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
